--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.2475864347069</v>
+        <v>89.63878766206292</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.27462628029016</v>
+        <v>122.6477438633953</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.75438124584572</v>
+        <v>110.9424153262946</v>
       </c>
       <c r="AD2" t="n">
-        <v>65247.58643470691</v>
+        <v>89638.78766206292</v>
       </c>
       <c r="AE2" t="n">
-        <v>89274.62628029016</v>
+        <v>122647.7438633953</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.879288671698228e-06</v>
+        <v>7.177699696391358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.919270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80754.38124584573</v>
+        <v>110942.4153262946</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.40176052991627</v>
+        <v>84.62236955668008</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.64435349460803</v>
+        <v>115.7840593028663</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.75689238918071</v>
+        <v>104.7337911869786</v>
       </c>
       <c r="AD3" t="n">
-        <v>60401.76052991627</v>
+        <v>84622.36955668009</v>
       </c>
       <c r="AE3" t="n">
-        <v>82644.35349460803</v>
+        <v>115784.0593028663</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.574515499417932e-06</v>
+        <v>8.464051348087937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>74756.89238918071</v>
+        <v>104733.7911869786</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.687939638103</v>
+        <v>71.88362976033204</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.66767225887443</v>
+        <v>98.35435351997536</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.87342423980448</v>
+        <v>88.96755206125549</v>
       </c>
       <c r="AD4" t="n">
-        <v>59687.93963810299</v>
+        <v>71883.62976033204</v>
       </c>
       <c r="AE4" t="n">
-        <v>81667.67225887443</v>
+        <v>98354.35351997537</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.64019850405796e-06</v>
+        <v>8.585582103430363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.274739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>73873.42423980447</v>
+        <v>88967.55206125548</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.39505810145667</v>
+        <v>82.75189016629862</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.26693881941364</v>
+        <v>113.2247868812209</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.51093623737277</v>
+        <v>102.4187721332928</v>
       </c>
       <c r="AD2" t="n">
-        <v>59395.05810145667</v>
+        <v>82751.89016629862</v>
       </c>
       <c r="AE2" t="n">
-        <v>81266.93881941364</v>
+        <v>113224.7868812209</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.518527784690333e-06</v>
+        <v>8.613011312851045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>73510.93623737278</v>
+        <v>102418.7721332928</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.71341614231986</v>
+        <v>68.47721778358799</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.59779798523087</v>
+        <v>93.69355037310632</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.19197305473173</v>
+        <v>84.75156942524386</v>
       </c>
       <c r="AD3" t="n">
-        <v>56713.41614231987</v>
+        <v>68477.21778358798</v>
       </c>
       <c r="AE3" t="n">
-        <v>77597.79798523086</v>
+        <v>93693.55037310632</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.998124850150277e-06</v>
+        <v>9.527197336983186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>70191.97305473173</v>
+        <v>84751.56942524386</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.30534838707873</v>
+        <v>59.76888038682052</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.46175286163154</v>
+        <v>81.7784189621235</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.02329785169682</v>
+        <v>73.97360143312947</v>
       </c>
       <c r="AD2" t="n">
-        <v>49305.34838707873</v>
+        <v>59768.88038682052</v>
       </c>
       <c r="AE2" t="n">
-        <v>67461.75286163154</v>
+        <v>81778.4189621235</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.814528350618518e-06</v>
+        <v>1.23834237076867e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.014322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61023.29785169682</v>
+        <v>73973.60143312947</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.09754353786079</v>
+        <v>63.06942909261205</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.28215744988587</v>
+        <v>86.29437531131745</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.4790883880209</v>
+        <v>78.05856124654234</v>
       </c>
       <c r="AD2" t="n">
-        <v>52097.54353786079</v>
+        <v>63069.42909261204</v>
       </c>
       <c r="AE2" t="n">
-        <v>71282.15744988587</v>
+        <v>86294.37531131745</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.52251822516265e-06</v>
+        <v>1.1212621306486e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.040364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64479.0883880209</v>
+        <v>78058.56124654233</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.13591938824612</v>
+        <v>63.10780494299737</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.33466498140608</v>
+        <v>86.34688284283766</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.52658467442762</v>
+        <v>78.10605753294905</v>
       </c>
       <c r="AD3" t="n">
-        <v>52135.91938824613</v>
+        <v>63107.80494299737</v>
       </c>
       <c r="AE3" t="n">
-        <v>71334.66498140608</v>
+        <v>86346.88284283766</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.517930024422014e-06</v>
+        <v>1.120330567269624e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.040364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>64526.58467442762</v>
+        <v>78106.05753294905</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.31557954872601</v>
+        <v>57.3621573542704</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.73926335459292</v>
+        <v>78.48543433186347</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.56063892217109</v>
+        <v>70.99489463424747</v>
       </c>
       <c r="AD2" t="n">
-        <v>47315.579548726</v>
+        <v>57362.1573542704</v>
       </c>
       <c r="AE2" t="n">
-        <v>64739.26335459292</v>
+        <v>78485.43433186348</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894369915833901e-06</v>
+        <v>1.312561049041039e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>58560.63892217109</v>
+        <v>70994.89463424747</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.75577807687053</v>
+        <v>84.51023873205388</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.12873592050251</v>
+        <v>115.63063696175</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.19504603618296</v>
+        <v>104.5950112587687</v>
       </c>
       <c r="AD2" t="n">
-        <v>60755.77807687053</v>
+        <v>84510.23873205388</v>
       </c>
       <c r="AE2" t="n">
-        <v>83128.73592050251</v>
+        <v>115630.63696175</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>8.236787014371992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75195.04603618296</v>
+        <v>104595.0112587687</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.65975827745987</v>
+        <v>69.53707811360259</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.89262504419723</v>
+        <v>95.14369803436935</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.36322363649195</v>
+        <v>86.0633170290114</v>
       </c>
       <c r="AD3" t="n">
-        <v>57659.75827745987</v>
+        <v>69537.07811360259</v>
       </c>
       <c r="AE3" t="n">
-        <v>78892.62504419724</v>
+        <v>95143.69803436936</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.879978676437797e-06</v>
+        <v>9.226886385062704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71363.22363649195</v>
+        <v>86063.31702901141</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.60336818105585</v>
+        <v>69.48068801719857</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.8154696265418</v>
+        <v>95.06654261671393</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.29343182360923</v>
+        <v>85.99352521612867</v>
       </c>
       <c r="AD4" t="n">
-        <v>57603.36818105585</v>
+        <v>69480.68801719857</v>
       </c>
       <c r="AE4" t="n">
-        <v>78815.4696265418</v>
+        <v>95066.54261671394</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.878614691636286e-06</v>
+        <v>9.224307412155453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>71293.43182360922</v>
+        <v>85993.52521612868</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.11991920428633</v>
+        <v>55.91959769763601</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.10330812251981</v>
+        <v>76.51166056841683</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.08081696136893</v>
+        <v>69.20949506857465</v>
       </c>
       <c r="AD2" t="n">
-        <v>46119.91920428634</v>
+        <v>55919.59769763601</v>
       </c>
       <c r="AE2" t="n">
-        <v>63103.30812251981</v>
+        <v>76511.66056841683</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.900657289900779e-06</v>
+        <v>1.352765069525796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.157552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57080.81696136893</v>
+        <v>69209.49506857466</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.69544990902158</v>
+        <v>79.31543904174306</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.57321579221788</v>
+        <v>108.5228828470825</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.16973695171859</v>
+        <v>98.16561122100731</v>
       </c>
       <c r="AD2" t="n">
-        <v>56695.44990902158</v>
+        <v>79315.43904174305</v>
       </c>
       <c r="AE2" t="n">
-        <v>77573.21579221787</v>
+        <v>108522.8828470825</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826323346162969e-06</v>
+        <v>9.459527059008437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.352864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70169.73695171859</v>
+        <v>98165.6112210073</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.58201927602798</v>
+        <v>65.97739945123587</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.68152676217836</v>
+        <v>90.27318864658251</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.55402666419408</v>
+        <v>81.65764222139053</v>
       </c>
       <c r="AD3" t="n">
-        <v>54582.01927602798</v>
+        <v>65977.39945123586</v>
       </c>
       <c r="AE3" t="n">
-        <v>74681.52676217837</v>
+        <v>90273.18864658251</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.237537429827808e-06</v>
+        <v>1.026550098003995e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>67554.02666419408</v>
+        <v>81657.64222139053</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.18446462561885</v>
+        <v>81.30562695703547</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.61055141815832</v>
+        <v>111.2459457536784</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.01263212493842</v>
+        <v>100.6287888256414</v>
       </c>
       <c r="AD2" t="n">
-        <v>58184.46462561885</v>
+        <v>81305.62695703548</v>
       </c>
       <c r="AE2" t="n">
-        <v>79610.55141815833</v>
+        <v>111245.9457536784</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.668700194251324e-06</v>
+        <v>8.97652424886279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>72012.63212493842</v>
+        <v>100628.7888256414</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.13766578049175</v>
+        <v>67.78363255504721</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.81003093986472</v>
+        <v>92.7445564645966</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.47938939053709</v>
+        <v>83.89314616344066</v>
       </c>
       <c r="AD3" t="n">
-        <v>56137.66578049175</v>
+        <v>67783.63255504721</v>
       </c>
       <c r="AE3" t="n">
-        <v>76810.03093986472</v>
+        <v>92744.55646459659</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043283371221304e-06</v>
+        <v>9.696736477402833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>69479.38939053709</v>
+        <v>83893.14616344066</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.86009658477468</v>
+        <v>88.04580746351343</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.37620145588176</v>
+        <v>120.4681580784145</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.03713942222228</v>
+        <v>108.9708461495639</v>
       </c>
       <c r="AD2" t="n">
-        <v>63860.09658477468</v>
+        <v>88045.80746351343</v>
       </c>
       <c r="AE2" t="n">
-        <v>87376.20145588176</v>
+        <v>120468.1580784145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.011047174072447e-06</v>
+        <v>7.472276661711374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>79037.13942222229</v>
+        <v>108970.8461495639</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.60964503695084</v>
+        <v>71.70258998487127</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.56054613146406</v>
+        <v>98.10664691227886</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.77652207964167</v>
+        <v>88.74348622453903</v>
       </c>
       <c r="AD3" t="n">
-        <v>59609.64503695085</v>
+        <v>71702.58998487127</v>
       </c>
       <c r="AE3" t="n">
-        <v>81560.54613146407</v>
+        <v>98106.64691227885</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653387866470642e-06</v>
+        <v>8.668908652404552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73776.52207964167</v>
+        <v>88743.48622453902</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.92073034061789</v>
+        <v>71.01367528853831</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.61794265117041</v>
+        <v>97.16404343198518</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.92387935255462</v>
+        <v>87.89084349745198</v>
       </c>
       <c r="AD4" t="n">
-        <v>58920.73034061788</v>
+        <v>71013.6752885383</v>
       </c>
       <c r="AE4" t="n">
-        <v>80617.94265117041</v>
+        <v>97164.04343198518</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.743312269472214e-06</v>
+        <v>8.83643099475206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>72923.87935255462</v>
+        <v>87890.84349745198</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.19776851457161</v>
+        <v>64.31834151223154</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.78753380152114</v>
+        <v>88.00319238196732</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.84079373346556</v>
+        <v>79.60429121430975</v>
       </c>
       <c r="AD2" t="n">
-        <v>53197.76851457161</v>
+        <v>64318.34151223154</v>
       </c>
       <c r="AE2" t="n">
-        <v>72787.53380152113</v>
+        <v>88003.19238196732</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.372509491327798e-06</v>
+        <v>1.076918106488749e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>65840.79373346556</v>
+        <v>79604.29121430975</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.99576419529051</v>
+        <v>64.11633719295044</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.51114258007928</v>
+        <v>87.72680116052547</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.5907809022805</v>
+        <v>79.35427838312469</v>
       </c>
       <c r="AD3" t="n">
-        <v>52995.76419529051</v>
+        <v>64116.33719295044</v>
       </c>
       <c r="AE3" t="n">
-        <v>72511.14258007928</v>
+        <v>87726.80116052547</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.41506825585267e-06</v>
+        <v>1.085448999580814e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.059895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65590.7809022805</v>
+        <v>79354.27838312469</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.30650199775653</v>
+        <v>60.95184051317947</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.83157539954031</v>
+        <v>83.39699719552451</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.26238644914602</v>
+        <v>75.43770483162402</v>
       </c>
       <c r="AD2" t="n">
-        <v>50306.50199775653</v>
+        <v>60951.84051317947</v>
       </c>
       <c r="AE2" t="n">
-        <v>68831.57539954031</v>
+        <v>83396.99719552451</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.705427816913779e-06</v>
+        <v>1.193611179855453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>62262.38644914602</v>
+        <v>75437.70483162401</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.41267804749523</v>
+        <v>58.67815275894012</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.24036192117804</v>
+        <v>80.28603730215146</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.91847474836687</v>
+        <v>72.62365058421386</v>
       </c>
       <c r="AD2" t="n">
-        <v>48412.67804749522</v>
+        <v>58678.15275894012</v>
       </c>
       <c r="AE2" t="n">
-        <v>66240.36192117803</v>
+        <v>80286.03730215145</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.843333995830746e-06</v>
+        <v>1.27025653220372e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.053385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>59918.47474836687</v>
+        <v>72623.65058421386</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.85727941606636</v>
+        <v>63.71144189755504</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.37570866054201</v>
+        <v>87.17280555464602</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.51809716734068</v>
+        <v>78.85315534033248</v>
       </c>
       <c r="AD2" t="n">
-        <v>44857.27941606636</v>
+        <v>63711.44189755504</v>
       </c>
       <c r="AE2" t="n">
-        <v>61375.70866054201</v>
+        <v>87172.80555464602</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.774462557982606e-06</v>
+        <v>1.373471489401601e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>55518.09716734067</v>
+        <v>78853.15534033248</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.26754894179462</v>
+        <v>80.14346934350927</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.35598692808563</v>
+        <v>109.6558304360772</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.87780150900554</v>
+        <v>99.19043188221066</v>
       </c>
       <c r="AD2" t="n">
-        <v>57267.54894179462</v>
+        <v>80143.46934350926</v>
       </c>
       <c r="AE2" t="n">
-        <v>78355.98692808562</v>
+        <v>109655.8304360772</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.785570327194093e-06</v>
+        <v>9.286773427536216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.346354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70877.80150900554</v>
+        <v>99190.43188221066</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.16905566878809</v>
+        <v>66.69240147849256</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.4847358529702</v>
+        <v>91.25148596393782</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.28057860667204</v>
+        <v>82.54257221582667</v>
       </c>
       <c r="AD3" t="n">
-        <v>55169.05566878809</v>
+        <v>66692.40147849255</v>
       </c>
       <c r="AE3" t="n">
-        <v>75484.7358529702</v>
+        <v>91251.48596393783</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.190260039507948e-06</v>
+        <v>1.00721054589886e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>68280.57860667203</v>
+        <v>82542.57221582667</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.19322154071571</v>
+        <v>86.16688294896433</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.09550948326448</v>
+        <v>117.8973306653104</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.9741134904996</v>
+        <v>106.6453748965867</v>
       </c>
       <c r="AD2" t="n">
-        <v>62193.22154071571</v>
+        <v>86166.88294896432</v>
       </c>
       <c r="AE2" t="n">
-        <v>85095.50948326448</v>
+        <v>117897.3306653104</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.197452582955778e-06</v>
+        <v>7.876067409279587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.678385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76974.1134904996</v>
+        <v>106645.3748965867</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.05025463234792</v>
+        <v>71.03717484502329</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.79516350132381</v>
+        <v>97.19619656189516</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.08418649350048</v>
+        <v>87.91992797777058</v>
       </c>
       <c r="AD3" t="n">
-        <v>59050.25463234793</v>
+        <v>71037.17484502328</v>
       </c>
       <c r="AE3" t="n">
-        <v>80795.16350132381</v>
+        <v>97196.19656189517</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698546764028474e-06</v>
+        <v>8.816316636763922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.287760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73084.18649350049</v>
+        <v>87919.92797777058</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.16785684726422</v>
+        <v>70.15477705993958</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.58782792313006</v>
+        <v>95.98886098370141</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.99207732838303</v>
+        <v>86.82781881265313</v>
       </c>
       <c r="AD4" t="n">
-        <v>58167.85684726422</v>
+        <v>70154.77705993957</v>
       </c>
       <c r="AE4" t="n">
-        <v>79587.82792313007</v>
+        <v>95988.86098370141</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.838564653276226e-06</v>
+        <v>9.079045116103594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>71992.07732838303</v>
+        <v>86827.81881265313</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.43342817914564</v>
+        <v>61.75381410561218</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.42753258230483</v>
+        <v>84.49429284526823</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.75585227972752</v>
+        <v>76.43027612462068</v>
       </c>
       <c r="AD2" t="n">
-        <v>43433.42817914564</v>
+        <v>61753.81410561218</v>
       </c>
       <c r="AE2" t="n">
-        <v>59427.53258230483</v>
+        <v>84494.29284526824</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.349309796842272e-06</v>
+        <v>1.33782178452873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>53755.85227972752</v>
+        <v>76430.27612462068</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.18725417015153</v>
+        <v>62.00129065304535</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.03665937785406</v>
+        <v>84.83290117536086</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.35245890391589</v>
+        <v>76.73656815092914</v>
       </c>
       <c r="AD2" t="n">
-        <v>51187.25417015154</v>
+        <v>62001.29065304535</v>
       </c>
       <c r="AE2" t="n">
-        <v>70036.65937785407</v>
+        <v>84832.90117536086</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.632717688552731e-06</v>
+        <v>1.159936236029186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>63352.45890391589</v>
+        <v>76736.56815092915</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.77177746378839</v>
+        <v>66.03317430111284</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.94116228621246</v>
+        <v>90.34950225679687</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.7888829382152</v>
+        <v>81.72667256775289</v>
       </c>
       <c r="AD2" t="n">
-        <v>54771.77746378839</v>
+        <v>66033.17430111284</v>
       </c>
       <c r="AE2" t="n">
-        <v>74941.16228621246</v>
+        <v>90349.50225679687</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.123345373856033e-06</v>
+        <v>1.015029045385962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.196614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67788.88293821519</v>
+        <v>81726.67256775289</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.81241856141326</v>
+        <v>65.07381539873771</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.62852511205575</v>
+        <v>89.03686508264018</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.60152201366174</v>
+        <v>80.53931164319943</v>
       </c>
       <c r="AD3" t="n">
-        <v>53812.41856141326</v>
+        <v>65073.8153987377</v>
       </c>
       <c r="AE3" t="n">
-        <v>73628.52511205575</v>
+        <v>89036.86508264017</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.320188133818047e-06</v>
+        <v>1.054027220241584e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>66601.52201366174</v>
+        <v>80539.31164319943</v>
       </c>
     </row>
   </sheetData>
